--- a/table/lm/bio_env_lm.xlsx
+++ b/table/lm/bio_env_lm.xlsx
@@ -392,16 +392,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.116776571973537</v>
+        <v>1.1168</v>
       </c>
       <c r="C2">
-        <v>0.09326442456283425</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="D2">
-        <v>11.97430399863928</v>
+        <v>11.9743</v>
       </c>
       <c r="E2">
-        <v>7.520651982693065e-012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.5159973363497511</v>
+        <v>0.516</v>
       </c>
       <c r="C3">
-        <v>0.1917928448729687</v>
+        <v>0.1918</v>
       </c>
       <c r="D3">
-        <v>2.690388876037137</v>
+        <v>2.6904</v>
       </c>
       <c r="E3">
-        <v>0.01253382007230864</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +430,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.03726890249150729</v>
+        <v>-0.0373</v>
       </c>
       <c r="C4">
-        <v>0.1135541427438037</v>
+        <v>0.1136</v>
       </c>
       <c r="D4">
-        <v>-0.3282038117763075</v>
+        <v>-0.3282</v>
       </c>
       <c r="E4">
-        <v>0.7454906568646453</v>
+        <v>0.7455000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.4553399193126507</v>
+        <v>0.4553</v>
       </c>
       <c r="C5">
-        <v>0.1545044526102178</v>
+        <v>0.1545</v>
       </c>
       <c r="D5">
-        <v>2.947099009899588</v>
+        <v>2.9471</v>
       </c>
       <c r="E5">
-        <v>0.006854010446282551</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="6">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.963294929689594</v>
+        <v>1.9633</v>
       </c>
       <c r="C6">
-        <v>0.5506779673836978</v>
+        <v>0.5507</v>
       </c>
       <c r="D6">
-        <v>3.565232397107369</v>
+        <v>3.5652</v>
       </c>
       <c r="E6">
-        <v>0.001498548070032496</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.8037559251017639</v>
+        <v>-0.8038</v>
       </c>
       <c r="C7">
-        <v>0.271214454410395</v>
+        <v>0.2712</v>
       </c>
       <c r="D7">
-        <v>-2.963543837842582</v>
+        <v>-2.9635</v>
       </c>
       <c r="E7">
-        <v>0.006589768377201902</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="8">
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.9855849058642924</v>
+        <v>-0.9856</v>
       </c>
       <c r="C8">
-        <v>0.2788100326912488</v>
+        <v>0.2788</v>
       </c>
       <c r="D8">
-        <v>-3.534969299170516</v>
+        <v>-3.535</v>
       </c>
       <c r="E8">
-        <v>0.001617098456839161</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="9">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>-1.816962576466625</v>
+        <v>-1.817</v>
       </c>
       <c r="C9">
-        <v>0.4804144984633165</v>
+        <v>0.4804</v>
       </c>
       <c r="D9">
-        <v>-3.782072735686524</v>
+        <v>-3.7821</v>
       </c>
       <c r="E9">
-        <v>0.000865192985711654</v>
+        <v>0.0009</v>
       </c>
     </row>
   </sheetData>

--- a/table/lm/bio_env_lm.xlsx
+++ b/table/lm/bio_env_lm.xlsx
@@ -579,19 +579,19 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.4805100588438216</v>
+        <v>0.4805100588438212</v>
       </c>
       <c r="B2">
-        <v>0.3350528753200917</v>
+        <v>0.3350528753200911</v>
       </c>
       <c r="C2">
-        <v>3.303446740844057</v>
+        <v>3.303446740844052</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2">
-        <v>0.01254045061192058</v>
+        <v>0.01254045061192067</v>
       </c>
     </row>
   </sheetData>
